--- a/mcmaster_excel/Metric_Tamper-Resistant_Drilled_Spanner_Pan_Head_Screws.xlsx
+++ b/mcmaster_excel/Metric_Tamper-Resistant_Drilled_Spanner_Pan_Head_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,136 +434,108 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg., mm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia., mm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHt., mm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Finish</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr"/>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+          <t>Lg., mm</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Threading</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HeadDia., mm</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HeadHt., mm</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>DriveSize</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Finish</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>TensileStrength, psi</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Pkg.</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>No. 4</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>__</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>94066A627</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>$11.70</t>
-        </is>
-      </c>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
@@ -574,7 +546,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -614,12 +586,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>94066A628</t>
+          <t>94066A627</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>11.70</t>
+          <t>$11.70</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -632,7 +604,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -672,7 +644,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>94066A629</t>
+          <t>94066A628</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -690,7 +662,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -730,7 +702,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>94066A631</t>
+          <t>94066A629</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -748,18 +720,54 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>M4 × 0.7 mm</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>No. 4</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>__</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>94066A631</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>11.70</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
@@ -770,54 +778,18 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>No. 8</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Passivated</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>94066A611</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>11.45</t>
-        </is>
-      </c>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
@@ -828,7 +800,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -868,12 +840,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>94066A612</t>
+          <t>94066A611</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>11.75</t>
+          <t>11.45</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -886,7 +858,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -926,12 +898,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>94066A613</t>
+          <t>94066A612</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>12.06</t>
+          <t>11.75</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -944,7 +916,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -984,12 +956,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>94066A614</t>
+          <t>94066A613</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>12.57</t>
+          <t>12.06</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -1002,7 +974,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1042,12 +1014,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>94066A615</t>
+          <t>94066A614</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>13.16</t>
+          <t>12.57</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1060,18 +1032,54 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>M5 × 0.8 mm</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>No. 8</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Passivated</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>94066A615</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>13.16</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
@@ -1082,54 +1090,18 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>9.98</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>No. 10</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Passivated</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>94066A616</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>13.08</t>
-        </is>
-      </c>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
@@ -1140,7 +1112,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1180,12 +1152,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>94066A617</t>
+          <t>94066A616</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>13.47</t>
+          <t>13.08</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1198,7 +1170,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1238,12 +1210,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>94066A618</t>
+          <t>94066A617</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>14.21</t>
+          <t>13.47</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -1256,7 +1228,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1296,12 +1268,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>94066A619</t>
+          <t>94066A618</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>15.51</t>
+          <t>14.21</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1314,7 +1286,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1354,12 +1326,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>94066A621</t>
+          <t>94066A619</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>16.01</t>
+          <t>15.51</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1372,18 +1344,54 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>M6 × 1 mm</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>No. 10</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Passivated</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>94066A621</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>16.01</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
@@ -1394,54 +1402,18 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>11.99</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>No. 14</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Passivated</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>94066A622</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>15.58</t>
-        </is>
-      </c>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
@@ -1452,7 +1424,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1492,12 +1464,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>94066A623</t>
+          <t>94066A622</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>16.24</t>
+          <t>15.58</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1510,7 +1482,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1550,12 +1522,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>94066A624</t>
+          <t>94066A623</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>17.32</t>
+          <t>16.24</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1568,7 +1540,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1608,12 +1580,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>94066A625</t>
+          <t>94066A624</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>18.01</t>
+          <t>17.32</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1626,7 +1598,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1661,21 +1633,79 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>94066A626</t>
+          <t>94066A625</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>7.93</t>
+          <t>18.01</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>No. 14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Passivated</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>94066A626</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
         </is>
